--- a/BackTest/2020-01-21 BackTest WPX.xlsx
+++ b/BackTest/2020-01-21 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3784,7 +3784,7 @@
         <v>6682692.432798823</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>6623655.148632368</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>6646975.098032368</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>6646975.098032368</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>6649275.098032368</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>6672492.848132368</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>6629086.342126711</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>6629192.631434888</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>7122320.931008627</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>7122320.931008627</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>7144219.215413566</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>7184967.289313566</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>7314098.883913566</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>7392189.243789065</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>7479460.422751079</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>7517449.965713566</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>7559322.574713566</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>7743504.346919781</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>7967303.911013566</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>8018846.648685635</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>7944305.962406276</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>7941118.789298765</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>7911003.529998765</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>7911162.253198765</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>7895276.423698765</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>7917498.944898766</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>7911089.282035824</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>7851669.100035824</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>7883226.088335824</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>7852301.320235824</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>7860115.234835824</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>7839234.537635824</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>7839234.537635824</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>7901400.346635824</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>7854515.022544573</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>7831035.005744573</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>7832174.932644573</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>7832169.932644573</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>7832207.932644573</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>7825685.302344573</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>7859266.843644572</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>7859795.547744572</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>7859795.547744572</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>7910368.61891004</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>7908649.06581004</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>7911217.00811004</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>7889693.93971004</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>7895154.092210039</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>7895154.092210039</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>7892763.931210039</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>7924918.301527886</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>7983974.524810039</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>7957873.18531004</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>7957873.18531004</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>7957873.18531004</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>7943769.69991004</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>7919208.28121004</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>7891774.84001004</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>7891774.84001004</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>7887760.85471004</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>7887760.85471004</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>7887760.85471004</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>7910168.40731004</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>7949493.564810039</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>7950647.45841004</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>7975899.25001004</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>7986812.60671004</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>7986129.00361004</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>8021272.56651004</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>8081969.56651004</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>8149206.686512306</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>8140352.155679821</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>8157752.267579821</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>8153342.419691449</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>8107590.208291449</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>8089916.591491449</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>8068412.514291449</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>8072011.227091448</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>8082511.967391448</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>8079833.507291448</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>8058550.629491448</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>8058550.629491448</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>8049459.203791449</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>8064798.388156086</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>8051282.628913859</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>8050686.443413859</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>8061293.193087632</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>8046487.098987631</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>8046487.098987631</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>8047211.625587632</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>8049657.551587632</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>8043568.243087632</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>8085887.495587632</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>8076726.618287632</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>8037080.548805214</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>8024999.854683815</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>8019068.511083814</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>8038895.561583814</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>8038895.561583814</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>8038888.627083814</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>8015498.618983814</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>8015498.618983814</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>8004645.849383813</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>7999291.758483813</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>7999291.758483813</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>7999303.557893842</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>7992312.236693842</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>7992312.236693842</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>7993027.291245465</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>7992987.291245465</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>7993603.599483813</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>7993603.599483813</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>7993603.599483813</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>7992475.670222161</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>7995582.744122162</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>7998303.141922162</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>8000839.646022161</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>7996084.950022161</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>7996094.950022161</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>8003516.489022161</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>8000681.879022161</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>8000681.879022161</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>8006308.540022161</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>8006396.907422161</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>8003404.247322161</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>7985828.560822161</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>7985828.560822161</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>7988230.344122161</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>7999944.425322161</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>7999644.425322161</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>8001829.040863083</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>8001829.040863083</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>8001304.279063082</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>8001304.279063082</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>7998119.930963082</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>7998119.930963082</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>7998182.453163082</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>7997880.983763082</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>8120732.092146208</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>8120718.592146208</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>8122209.271246208</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>8122209.271246208</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>8122542.447046208</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>8122542.447046208</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>8121655.931346208</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>8122766.103846208</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>8122766.103846208</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>8113154.362646208</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>8150679.627246208</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>8174221.703046208</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>8178362.863046208</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>8165635.031946208</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>8176575.112766721</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>8177089.848166721</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>8177089.848166721</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>8175702.689266721</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>8175702.689266721</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>8171055.747466721</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>8162407.82386672</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>8073863.96916672</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>8083994.66926672</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>8064543.45516672</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>8064546.45516672</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>8043303.25286672</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>8041082.526166719</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>8045137.162666719</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>8044058.968266719</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>7986385.699266719</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>7989451.092966719</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>7963202.947166719</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>7964442.923466719</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>7964442.923466719</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>7964442.923466719</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>7977234.777515556</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>7996147.379952895</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>7996147.379952895</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>7994615.145752896</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>7994615.145752896</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>7994002.940752896</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>7994002.940752896</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>7994002.940752896</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>7994002.940752896</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>7994019.440752896</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>7994035.940752896</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>7977371.837352895</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>7977893.875652895</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>7967434.875252895</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>7967434.875252895</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>7967682.041552895</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>7967682.041552895</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>7968582.041552895</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>7949997.346252895</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>7949997.346252895</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>7950152.555252895</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>7950152.555252895</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>7944008.587752894</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>7944008.587752894</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>7944008.587752894</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>7944008.587752894</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>7946293.774252894</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>7971731.160252894</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>7974704.231252895</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>7972874.421052895</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>7972874.421052895</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>7985043.946552895</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>7985038.135977648</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>7984479.139777648</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>8018133.524677648</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>8019004.726677648</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>8012062.011777648</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>8012062.011777648</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>7990058.904177648</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>7986651.608377648</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>7971132.854777647</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>7971132.854777647</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>7965663.817677647</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>7961949.691277646</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>7947260.234277646</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>7947539.285077646</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>7935884.542877646</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>7935884.542877646</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>7937782.783377646</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>7947001.632177646</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>7947001.632177646</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>7947001.632177646</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>7935801.554177647</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>7935801.554177647</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>7939251.564277646</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>7933064.966177646</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>7933064.966177646</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>7922884.048177646</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>7893655.972077646</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>7885505.033977646</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>7885505.033977646</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>7890952.150277646</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>7890952.150277646</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>7848511.032477646</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>7848511.032477646</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>7848511.032477646</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>7848561.032477646</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>7851161.032477646</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>7851161.032477646</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>7833259.988377647</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>7833259.988377647</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>7789004.988377647</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>7789004.988377647</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>7789004.988377647</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>7789004.988377647</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>7789004.988377647</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>7794851.090377646</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>7779091.316277646</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>7779091.316277646</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>7933644.938177646</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>7823107.530377646</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>7813847.209877646</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>7813847.209877646</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>7814447.427026327</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>7813440.860628766</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>7813440.860628766</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>7813440.860628766</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>7804961.489128766</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>7773418.854628766</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>7773418.854628766</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>7621091.663328766</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>7595728.220528766</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>7597327.946828766</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>7585212.590128765</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>7589512.613928766</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>7589512.613928766</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>7589792.240428766</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>7684651.892828765</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>7667633.440828766</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>6685519.487513595</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>6642055.315213596</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>6383887.369013595</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>6386793.979913595</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>6418174.835760565</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>5897207.217257652</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>5454637.538815623</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>5178965.361927154</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>5195697.619527154</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>5245888.095027154</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>5258271.086727154</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>4879233.637927154</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>4920898.644427154</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>4751451.445127154</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>4751451.445127154</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>4807943.159827154</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>4630517.694297971</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>4792164.005997972</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>4717398.847797971</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>4768650.243564638</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>4768650.243564638</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>4651837.620631305</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -26290,11 +26290,17 @@
         <v>1982489.297849908</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>138.7</v>
+      </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26323,11 +26329,17 @@
         <v>1695498.187749908</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>140</v>
+      </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26368,17 @@
         <v>1695506.187749908</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>137</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26407,17 @@
         <v>1690322.890349908</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>139.9</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26446,17 @@
         <v>1700469.733932967</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>138.1</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +26485,17 @@
         <v>1697883.160032967</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>139.9</v>
+      </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +26524,17 @@
         <v>1697883.160032967</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>139</v>
+      </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26521,11 +26563,17 @@
         <v>1668031.170232967</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>139</v>
+      </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26554,11 +26602,17 @@
         <v>1718874.279332194</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>138.4</v>
+      </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26587,11 +26641,17 @@
         <v>1701241.662932194</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>140</v>
+      </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26620,11 +26680,17 @@
         <v>1677094.484432194</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>138.2</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26653,15 +26719,17 @@
         <v>1688615.408532194</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I796" t="n">
         <v>138.1</v>
       </c>
-      <c r="J796" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26690,17 +26758,15 @@
         <v>1688615.408532194</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I797" t="n">
         <v>139.5</v>
       </c>
-      <c r="J797" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L797" t="n">
@@ -26731,17 +26797,15 @@
         <v>1670079.135432194</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I798" t="n">
         <v>139.5</v>
       </c>
-      <c r="J798" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L798" t="n">
@@ -26772,17 +26836,15 @@
         <v>1666859.653432193</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I799" t="n">
         <v>139.3</v>
       </c>
-      <c r="J799" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L799" t="n">
@@ -26813,14 +26875,12 @@
         <v>1666859.653432193</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I800" t="n">
         <v>139</v>
       </c>
-      <c r="J800" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26854,14 +26914,12 @@
         <v>1666859.653432193</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I801" t="n">
         <v>139</v>
       </c>
-      <c r="J801" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26895,14 +26953,12 @@
         <v>1666868.453432193</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I802" t="n">
         <v>139</v>
       </c>
-      <c r="J802" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26936,14 +26992,12 @@
         <v>1745891.495032194</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I803" t="n">
         <v>139.1</v>
       </c>
-      <c r="J803" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26977,14 +27031,12 @@
         <v>1799010.280032194</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I804" t="n">
         <v>140</v>
       </c>
-      <c r="J804" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27018,14 +27070,12 @@
         <v>1819827.84496643</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I805" t="n">
         <v>142.5</v>
       </c>
-      <c r="J805" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27059,14 +27109,12 @@
         <v>1929467.491232194</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I806" t="n">
         <v>144</v>
       </c>
-      <c r="J806" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27100,12 +27148,12 @@
         <v>1799491.749932194</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>138.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27142,9 +27190,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27181,9 +27227,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27220,9 +27264,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27259,9 +27301,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27298,9 +27338,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27337,9 +27375,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27376,9 +27412,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27415,9 +27449,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27454,9 +27486,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27493,9 +27523,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27532,9 +27560,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27571,9 +27597,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27610,9 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27649,9 +27671,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27688,9 +27708,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27727,9 +27745,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27766,9 +27782,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27805,9 +27819,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27844,9 +27856,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27883,9 +27893,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27922,9 +27930,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27961,9 +27967,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27975,6 +27979,6 @@
       <c r="M829" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest WPX.xlsx
+++ b/BackTest/2020-01-21 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>3191813.708</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1226322.2077</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>5146116.782</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>8087064.6799</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>8087064.6799</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>8060340.31663077</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>6733910.85173077</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>3812136.441230769</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>3810803.598830769</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>3810803.598830769</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4239915.622130769</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>4897158.45793077</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>4675438.95113077</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>4757848.42923077</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2502157.45123077</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>11255761.21133077</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>11255761.21133077</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>13981556.05523077</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>9466948.85143077</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6757655.93543077</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>6757683.50723077</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>6753049.25083077</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>6753049.25083077</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6711092.65543077</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>6711102.65543077</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>6711086.65543077</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>6714118.59553077</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6725088.035357521</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6724723.05155752</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>6683275.401153253</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>6682692.432798823</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>6678297.060198823</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>6678297.060198823</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>6665425.546498823</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>6666059.035956418</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>6688594.313944393</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>6691831.195744392</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>6671069.761444393</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>6671069.761444393</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>6664147.607632367</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>6663481.862232367</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>6655160.712132366</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>6646975.098032368</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>6646975.098032368</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>6649275.098032368</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>6672492.848132368</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>6743895.644070167</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>6729058.152170167</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>6721143.249570168</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>6741243.225470168</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>6741316.352970168</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>6710951.957970168</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>6711800.083424157</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>6702882.369324156</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>6714229.130970169</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>6714229.130970169</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>6719866.852126712</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>6719866.852126712</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>6720075.799226712</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>6720075.799226712</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>6707508.835126711</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>6706439.646326711</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>6666064.145726711</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>6655015.531826711</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>6628206.429226711</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>6629681.410026711</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>6629086.342126711</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>6629086.342126711</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>6637786.755826712</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>6637786.755826712</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>6662348.174526712</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>6663051.576626712</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>6677534.465426711</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>7314098.883913566</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>7392189.243789065</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>7479460.422751079</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>7517449.965713566</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>7559322.574713566</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>7743504.346919781</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>7967303.911013566</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>8018846.648685635</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>7944305.962406276</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>7941118.789298765</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>7911003.529998765</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>7911162.253198765</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>7895276.423698765</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>7917498.944898766</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>7911089.282035824</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>7851669.100035824</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>7883226.088335824</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>7852301.320235824</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>7860115.234835824</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>7839234.537635824</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>7839234.537635824</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>7901400.346635824</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>7854515.022544573</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>7831035.005744573</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>7832174.932644573</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>7832169.932644573</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>7832207.932644573</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>7825685.302344573</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>7859266.843644572</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>7859795.547744572</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>7859795.547744572</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>7910368.61891004</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>7908649.06581004</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>7911217.00811004</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>7889693.93971004</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>7895154.092210039</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>7895154.092210039</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>7892763.931210039</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>7924918.301527886</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>7983974.524810039</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>7957873.18531004</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>7957873.18531004</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>7957873.18531004</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>7943769.69991004</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>7919208.28121004</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>7891774.84001004</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>7891774.84001004</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>7887760.85471004</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>7887760.85471004</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>7887760.85471004</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>7910168.40731004</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>7949493.564810039</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>7950647.45841004</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>7975899.25001004</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>7986812.60671004</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>7986129.00361004</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>8021272.56651004</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>8081969.56651004</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>8149206.686512306</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>8140352.155679821</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>8157752.267579821</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>8153342.419691449</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>8107590.208291449</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>8089916.591491449</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>8068412.514291449</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>8072011.227091448</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>8082511.967391448</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>8079833.507291448</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>8058550.629491448</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>8058550.629491448</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>8049459.203791449</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>8064798.388156086</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>8051282.628913859</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>8050686.443413859</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>8061293.193087632</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>8046487.098987631</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>8046487.098987631</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>8047211.625587632</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>8049657.551587632</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>8043568.243087632</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>8085887.495587632</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>8076726.618287632</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>8037080.548805214</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>8024999.854683815</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>8019068.511083814</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>8038895.561583814</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>8038895.561583814</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>8038888.627083814</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>8015498.618983814</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>8015498.618983814</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>8004645.849383813</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>7999291.758483813</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>7999291.758483813</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>7999303.557893842</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>7992312.236693842</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>7992312.236693842</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>7993027.291245465</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>7992987.291245465</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>7993603.599483813</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>7993603.599483813</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>7993603.599483813</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>7992475.670222161</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>7995582.744122162</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>7998303.141922162</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>8000839.646022161</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>7996084.950022161</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>7996094.950022161</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>8003516.489022161</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>8000681.879022161</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>8000681.879022161</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>8006308.540022161</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>8006396.907422161</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>8003404.247322161</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>7985828.560822161</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>7985828.560822161</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>7988230.344122161</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>7999944.425322161</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>7999644.425322161</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>8001829.040863083</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>8001829.040863083</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>8001304.279063082</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>8001304.279063082</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>7998119.930963082</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>7998119.930963082</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>7998182.453163082</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>7997880.983763082</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>8120732.092146208</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>8120718.592146208</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>8122209.271246208</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>8122209.271246208</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>8122542.447046208</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>8122542.447046208</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>8121655.931346208</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>8122766.103846208</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>8122766.103846208</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>8113154.362646208</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>8150679.627246208</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>8174221.703046208</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>8178362.863046208</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>8165635.031946208</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>8176575.112766721</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>8177089.848166721</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>8177089.848166721</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>8175702.689266721</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>8175702.689266721</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>8171055.747466721</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>8162407.82386672</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>8073863.96916672</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>8083994.66926672</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>8064543.45516672</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>8064546.45516672</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>8043303.25286672</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>8041082.526166719</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>8045137.162666719</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>8044058.968266719</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>7986385.699266719</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>7989451.092966719</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>7963202.947166719</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>7964442.923466719</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>7964442.923466719</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>7964442.923466719</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>7977234.777515556</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>7996147.379952895</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>7996147.379952895</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>7994615.145752896</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>7994615.145752896</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>7994002.940752896</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>7994002.940752896</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>7994002.940752896</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>7994002.940752896</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>7994019.440752896</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>7994035.940752896</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>7977371.837352895</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>7977893.875652895</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>7967434.875252895</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>7967434.875252895</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>7967682.041552895</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>7967682.041552895</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>7968582.041552895</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>7949997.346252895</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>7949997.346252895</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>7950152.555252895</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>7950152.555252895</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>7944008.587752894</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>7944008.587752894</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>7944008.587752894</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>7944008.587752894</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>7946293.774252894</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>7971731.160252894</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>7974704.231252895</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>7972874.421052895</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>7972874.421052895</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>7985043.946552895</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>7985038.135977648</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>7984479.139777648</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>8018133.524677648</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>8019004.726677648</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>8012062.011777648</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>8012062.011777648</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>7990058.904177648</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>7986651.608377648</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>7971132.854777647</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>7971132.854777647</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>7965663.817677647</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>7961949.691277646</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>7947260.234277646</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>7947539.285077646</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>7935884.542877646</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>7935884.542877646</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>7937782.783377646</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>7947001.632177646</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>7947001.632177646</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>7947001.632177646</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>7935801.554177647</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>7935801.554177647</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>7939251.564277646</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>7933064.966177646</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>7933064.966177646</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>7922884.048177646</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>7893655.972077646</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>7885505.033977646</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>7885505.033977646</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>7890952.150277646</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>7890952.150277646</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>7848511.032477646</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>7848511.032477646</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>7848511.032477646</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>7848561.032477646</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>7851161.032477646</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>7851161.032477646</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>7833259.988377647</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>7833259.988377647</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>7789004.988377647</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>7789004.988377647</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>7789004.988377647</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>7789004.988377647</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>7789004.988377647</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>7794851.090377646</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>7779091.316277646</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>7779091.316277646</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>7933644.938177646</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>7823107.530377646</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>7813847.209877646</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>7813847.209877646</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>7814447.427026327</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>7813440.860628766</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>7813440.860628766</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>7813440.860628766</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>7804961.489128766</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>7773418.854628766</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>7773418.854628766</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>7621091.663328766</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>7595728.220528766</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>7597327.946828766</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>7585212.590128765</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>7589512.613928766</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>7589512.613928766</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>7589792.240428766</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>6685519.487513595</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>6642055.315213596</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>6383887.369013595</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>6386793.979913595</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>6418174.835760565</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>5897207.217257652</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>5454637.538815623</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -26290,17 +26290,11 @@
         <v>1982489.297849908</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>138.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26329,17 +26323,11 @@
         <v>1695498.187749908</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26368,17 +26356,11 @@
         <v>1695506.187749908</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26415,7 +26397,7 @@
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L788" t="n">
@@ -27109,11 +27091,9 @@
         <v>1929467.491232194</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27148,11 +27128,9 @@
         <v>1799491.749932194</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>145.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -27979,6 +27957,6 @@
       <c r="M829" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest WPX.xlsx
+++ b/BackTest/2020-01-21 BackTest WPX.xlsx
@@ -517,7 +517,7 @@
         <v>3191813.708</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1226322.2077</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>5146116.782</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>8087064.6799</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>8087064.6799</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>8060340.31663077</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>6733910.85173077</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>3812136.441230769</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>3810803.598830769</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>3810803.598830769</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4239915.622130769</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>4897158.45793077</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>4675438.95113077</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>4757848.42923077</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2502157.45123077</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>11255761.21133077</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>11255761.21133077</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>13981556.05523077</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>9466948.85143077</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6757655.93543077</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>6757683.50723077</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>6753049.25083077</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>6753049.25083077</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6711092.65543077</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>6711102.65543077</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>6711086.65543077</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>6714118.59553077</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6725088.035357521</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6724723.05155752</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>6683275.401153253</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>6682692.432798823</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>6678297.060198823</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>6678297.060198823</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>6665425.546498823</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>6666059.035956418</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>6688594.313944393</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>6691831.195744392</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>6671069.761444393</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>6671069.761444393</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>6664147.607632367</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>6663481.862232367</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>6655160.712132366</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>6646975.098032368</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>6646975.098032368</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>6649275.098032368</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>6672492.848132368</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>6743895.644070167</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>6729058.152170167</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>6721143.249570168</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>6741243.225470168</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>6741316.352970168</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>6710951.957970168</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>6711800.083424157</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>6702882.369324156</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>6714229.130970169</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>6714229.130970169</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>6719866.852126712</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>6719866.852126712</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>6720075.799226712</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>6720075.799226712</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>6707508.835126711</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>6706439.646326711</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>6666064.145726711</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>6655015.531826711</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>6628206.429226711</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>6629681.410026711</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>6629086.342126711</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>6629086.342126711</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>6637786.755826712</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>6637786.755826712</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>6662348.174526712</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>6663051.576626712</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>6677534.465426711</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>7144219.215413566</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>7314098.883913566</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>7392189.243789065</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>7479460.422751079</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>7517449.965713566</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>7559322.574713566</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>7743504.346919781</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>7967303.911013566</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>8018846.648685635</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>7944305.962406276</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>7941118.789298765</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>7911003.529998765</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>7911162.253198765</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>7895276.423698765</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>7917498.944898766</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>7911089.282035824</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>7851669.100035824</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>7859795.547744572</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>7910368.61891004</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>7908649.06581004</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>7911217.00811004</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>7889693.93971004</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>7895154.092210039</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>7895154.092210039</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>7892763.931210039</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>7924918.301527886</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>7986129.00361004</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>8081969.56651004</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>8149206.686512306</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>8140352.155679821</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>8157752.267579821</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>8153342.419691449</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>8107590.208291449</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>8089916.591491449</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>8068412.514291449</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>8079833.507291448</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>8024999.854683815</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>8019068.511083814</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>8038888.627083814</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>8015498.618983814</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>8120718.592146208</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>8122209.271246208</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>8122209.271246208</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>8122542.447046208</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>8122542.447046208</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>8121655.931346208</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>8122766.103846208</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>8122766.103846208</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>8113154.362646208</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>8150679.627246208</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>8174221.703046208</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>8178362.863046208</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>8165635.031946208</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>8177089.848166721</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>8175702.689266721</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>8175702.689266721</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>8162407.82386672</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>8073863.96916672</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>8083994.66926672</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>8064543.45516672</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>8064546.45516672</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>8043303.25286672</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>7972874.421052895</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>7985038.135977648</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>7984479.139777648</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>8012062.011777648</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -26389,17 +26389,11 @@
         <v>1690322.890349908</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26428,17 +26422,11 @@
         <v>1700469.733932967</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>138.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26475,7 +26463,7 @@
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L790" t="n">
@@ -27091,9 +27079,11 @@
         <v>1929467.491232194</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>144</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27128,9 +27118,11 @@
         <v>1799491.749932194</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>145.1</v>
+      </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -27165,9 +27157,11 @@
         <v>1615997.363080842</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>145</v>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -27202,9 +27196,11 @@
         <v>1644674.392175437</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>144.8</v>
+      </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -27239,9 +27235,11 @@
         <v>1599842.533375437</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>146</v>
+      </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -27276,9 +27274,11 @@
         <v>1319556.101375437</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>144</v>
+      </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -27313,9 +27313,11 @@
         <v>1319556.101375437</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>143</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27350,9 +27352,11 @@
         <v>1302789.220375437</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>143</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27387,9 +27391,11 @@
         <v>1529381.226075437</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>141.7</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -27424,9 +27430,11 @@
         <v>1667797.221975437</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>141.8</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -27461,9 +27469,11 @@
         <v>1678071.968275437</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>143</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -27498,9 +27508,11 @@
         <v>1672987.278575437</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>144</v>
+      </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -27535,9 +27547,11 @@
         <v>1685692.974975437</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>142.9</v>
+      </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -27572,9 +27586,11 @@
         <v>1711858.11294256</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>144</v>
+      </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -27609,9 +27625,11 @@
         <v>1708441.99564256</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>146</v>
+      </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -27646,9 +27664,11 @@
         <v>1695757.58024256</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>145.9</v>
+      </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -27683,9 +27703,11 @@
         <v>1281645.90114256</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>143.2</v>
+      </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -27720,9 +27742,11 @@
         <v>1281645.90114256</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>143</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -27757,9 +27781,11 @@
         <v>1321079.04574256</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>143</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -27794,9 +27820,11 @@
         <v>1016663.01934256</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>145.4</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -27831,9 +27859,11 @@
         <v>424709.8403425597</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>145.2</v>
+      </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -27868,9 +27898,11 @@
         <v>494951.9573425597</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>144.8</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -27905,9 +27937,11 @@
         <v>487650.3593425597</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>145</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -27942,9 +27976,11 @@
         <v>487169.0742425597</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>144.7</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
